--- a/biology/Médecine/Hémorragie_digestive_basse/Hémorragie_digestive_basse.xlsx
+++ b/biology/Médecine/Hémorragie_digestive_basse/Hémorragie_digestive_basse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9morragie_digestive_basse</t>
+          <t>Hémorragie_digestive_basse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hémorragie digestive basse est une hémorragie qui survient en aval de l’angle duodéno-jéjunal : intestin grêle, côlon, rectum et anus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9morragie_digestive_basse</t>
+          <t>Hémorragie_digestive_basse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une hémorragie digestive basse est souvent révélée par :
 une rectorragie
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9morragie_digestive_basse</t>
+          <t>Hémorragie_digestive_basse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,48 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les causes des hémorragies digestives basse sont multiples[1] :
-De l'hémorragie digestive basse mineure
-Très fréquentes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les causes des hémorragies digestives basse sont multiples :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hémorragie_digestive_basse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9morragie_digestive_basse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>De l'hémorragie digestive basse mineure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Très fréquentes :
 Hémorroïde
 Fissure
 Autres affections périanales
@@ -562,9 +613,43 @@
 Colite de radiation
 Angiodysplasie
 Ischémie
-Ulcère rectal
-De l’hémorragie digestive basse majeure
-Très fréquentes :
+Ulcère rectal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hémorragie_digestive_basse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9morragie_digestive_basse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>De l’hémorragie digestive basse majeure</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Très fréquentes :
 Affection diverticulaire
 Angiodysplasie
 Moins fréquentes :
@@ -578,33 +663,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H%C3%A9morragie_digestive_basse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hémorragie_digestive_basse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%A9morragie_digestive_basse</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
